--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/55_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/55_11R22.xlsx
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07144874099046693</v>
+        <v>0.06967628974079636</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2045599853377429</v>
+        <v>0.1909153863693467</v>
       </c>
       <c r="G2">
-        <v>0.02714974444000464</v>
+        <v>0.02932830599482949</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -701,46 +701,46 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0290270248939346</v>
+        <v>0.03103815242793108</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08252462820800011</v>
+        <v>0.07976432225223543</v>
       </c>
       <c r="M2">
-        <v>0.02454809799649807</v>
+        <v>0.02695869953442627</v>
       </c>
       <c r="N2">
-        <v>0.05711935729428735</v>
+        <v>0.05662493902217287</v>
       </c>
       <c r="O2">
-        <v>0.1067544252710419</v>
+        <v>0.1018330717543612</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00125036460295283</v>
       </c>
       <c r="Q2">
-        <v>0.01232230400621911</v>
+        <v>0.01582332005377826</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08331593317808354</v>
+        <v>0.08048505099458199</v>
       </c>
       <c r="T2">
-        <v>0.0102304952754119</v>
+        <v>0.01391807904963637</v>
       </c>
       <c r="U2">
-        <v>0.004057364582863604</v>
+        <v>0.008295527835390672</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0005385767935116869</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.04646341689338541</v>
+        <v>0.04691939841012267</v>
       </c>
       <c r="AA2">
-        <v>0.04432468817350008</v>
+        <v>0.04497142219516109</v>
       </c>
       <c r="AB2">
-        <v>0.01343870815312597</v>
+        <v>0.01684015248523111</v>
       </c>
       <c r="AC2">
-        <v>0.02164078342336163</v>
+        <v>0.0243106873834581</v>
       </c>
       <c r="AD2">
-        <v>0.05801334519570546</v>
+        <v>0.05743919243927723</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.09184475420885321</v>
+        <v>0.08825318930737101</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01121620247751379</v>
+        <v>0.01481587135342783</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.004722743025748623</v>
       </c>
       <c r="E3">
-        <v>0.1418159399475818</v>
+        <v>0.1301957513797363</v>
       </c>
       <c r="F3">
-        <v>0.09872220257134746</v>
+        <v>0.09245347076691675</v>
       </c>
       <c r="G3">
-        <v>0.2069442975351374</v>
+        <v>0.1872363539726595</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -811,40 +811,40 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01113447421919346</v>
+        <v>0.01574254191790265</v>
       </c>
       <c r="L3">
-        <v>0.01073011707211665</v>
+        <v>0.01538839855875207</v>
       </c>
       <c r="M3">
-        <v>0.07252642538067451</v>
+        <v>0.06951073166379762</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00326995474612653</v>
       </c>
       <c r="O3">
-        <v>0.1245353576273848</v>
+        <v>0.1150611024309197</v>
       </c>
       <c r="P3">
-        <v>0.001381621386913199</v>
+        <v>0.007200815653648438</v>
       </c>
       <c r="Q3">
-        <v>0.01928232319091698</v>
+        <v>0.02287857654856931</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.001954342446367278</v>
       </c>
       <c r="S3">
-        <v>0.04127125939661323</v>
+        <v>0.04213688764391801</v>
       </c>
       <c r="T3">
-        <v>0.03915883593317909</v>
+        <v>0.04028678867399194</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0004101711871275366</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -856,31 +856,31 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.01652144624684183</v>
+        <v>0.02046055020170124</v>
       </c>
       <c r="AA3">
-        <v>0.05421178848454478</v>
+        <v>0.05347043887088623</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04864231835471439</v>
+        <v>0.04859259542301902</v>
       </c>
       <c r="AD3">
-        <v>0.01065949108642214</v>
+        <v>0.0153265430332643</v>
       </c>
       <c r="AE3">
-        <v>0.01674694514216672</v>
+        <v>0.02065804624412912</v>
       </c>
       <c r="AF3">
-        <v>0.05034247547270182</v>
+        <v>0.05008162401371052</v>
       </c>
       <c r="AG3">
-        <v>0.03292331943692482</v>
+        <v>0.0348256096791693</v>
       </c>
       <c r="AH3">
-        <v>0.002449361514624829</v>
+        <v>0.008135961917937981</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06077831184018054</v>
+        <v>0.05908931776640827</v>
       </c>
       <c r="E4">
-        <v>0.01927921735545669</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1972395250967732</v>
+        <v>0.3132710809674092</v>
       </c>
       <c r="G4">
-        <v>0.08272612470805868</v>
+        <v>0.09997077880598584</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -918,34 +918,34 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.005733612551204085</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06122456209788915</v>
+        <v>0.05992053327905354</v>
       </c>
       <c r="M4">
-        <v>0.03477474417949812</v>
+        <v>0.01065333716963262</v>
       </c>
       <c r="N4">
-        <v>0.02905534363285065</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1208130509568491</v>
+        <v>0.1709140295494812</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0136694507451848</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.07051055616702104</v>
+        <v>0.07721724557727831</v>
       </c>
       <c r="T4">
-        <v>0.03146760476230591</v>
+        <v>0.004493238573463679</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -963,31 +963,31 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.03992548620240981</v>
+        <v>0.02024745302081887</v>
       </c>
       <c r="AA4">
-        <v>0.04898926026881485</v>
+        <v>0.03713024351105393</v>
       </c>
       <c r="AB4">
-        <v>0.00404788479676687</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.03286961180048691</v>
+        <v>0.007104710452399518</v>
       </c>
       <c r="AD4">
-        <v>0.04240514546775469</v>
+        <v>0.0248662318603263</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.09086017270347009</v>
+        <v>0.1151217994666889</v>
       </c>
       <c r="AG4">
-        <v>0.003374698307841019</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01025563635918384</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1004,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004323856466696732</v>
+        <v>0.009659423774374303</v>
       </c>
       <c r="E5">
-        <v>0.1070975820873751</v>
+        <v>0.09980387269103941</v>
       </c>
       <c r="F5">
-        <v>0.04225046241490647</v>
+        <v>0.04292544553074618</v>
       </c>
       <c r="G5">
-        <v>0.1848259689673723</v>
+        <v>0.1679806616335715</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003502513008323596</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1025,79 +1025,79 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0122290404142231</v>
+        <v>0.01659318477438668</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1137297204046612</v>
+        <v>0.1056210253741817</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1345826310147609</v>
+        <v>0.1239114407882717</v>
       </c>
       <c r="P5">
-        <v>0.02460036480254645</v>
+        <v>0.02744426770068594</v>
       </c>
       <c r="Q5">
-        <v>0.01531228139357949</v>
+        <v>0.019297543863082</v>
       </c>
       <c r="R5">
-        <v>0.01437320318167921</v>
+        <v>0.0184738636141647</v>
       </c>
       <c r="S5">
-        <v>0.003256665198294696</v>
+        <v>0.0087233735514424</v>
       </c>
       <c r="T5">
-        <v>0.1015049770660306</v>
+        <v>0.09489851098878507</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001219062927619696</v>
+        <v>0.006936160597041273</v>
       </c>
       <c r="W5">
-        <v>0.001148391224071384</v>
+        <v>0.00687417333588196</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.001902664237502797</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.005598501078294921</v>
       </c>
       <c r="AA5">
-        <v>0.08992417786370448</v>
+        <v>0.08474081011919433</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04175702399693434</v>
+        <v>0.04249264294434799</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02991225330905749</v>
+        <v>0.03210340853881725</v>
       </c>
       <c r="AF5">
-        <v>0.01532525686289548</v>
+        <v>0.01930892485101311</v>
       </c>
       <c r="AG5">
-        <v>0.06262708040359073</v>
+        <v>0.06079809720589156</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0004094897989593056</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1141388265656695</v>
+        <v>0.1136507442695177</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2419365094557567</v>
+        <v>0.2404343062401489</v>
       </c>
       <c r="G6">
-        <v>0.0468918852552695</v>
+        <v>0.04693743180441493</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0008848321223379341</v>
+        <v>0.001295461308112668</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07650489268839446</v>
+        <v>0.07631544929369428</v>
       </c>
       <c r="M6">
-        <v>0.01491419043933172</v>
+        <v>0.01521349158351712</v>
       </c>
       <c r="N6">
-        <v>0.05922423607757575</v>
+        <v>0.05917192095448939</v>
       </c>
       <c r="O6">
-        <v>0.08252803091264192</v>
+        <v>0.08229079173373151</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01473596099471104</v>
+        <v>0.01503667645411849</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.07131397741540728</v>
+        <v>0.07116572581425464</v>
       </c>
       <c r="T6">
-        <v>0.00232258765085009</v>
+        <v>0.002721807725555246</v>
       </c>
       <c r="U6">
-        <v>0.002757215123200046</v>
+        <v>0.00315298627143085</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.04965800083109521</v>
+        <v>0.04968159725088273</v>
       </c>
       <c r="AA6">
-        <v>0.01320297257215049</v>
+        <v>0.01351585285014811</v>
       </c>
       <c r="AB6">
-        <v>0.02669363352973991</v>
+        <v>0.02689946052488461</v>
       </c>
       <c r="AC6">
-        <v>0.001371318226775294</v>
+        <v>0.001778086969039805</v>
       </c>
       <c r="AD6">
-        <v>0.06446823592387661</v>
+        <v>0.06437430776191902</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.1006312446531708</v>
+        <v>0.1002503499137801</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01582144956204586</v>
+        <v>0.01611355127635973</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1999316122606811</v>
+        <v>0.1892178772042002</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1038923171782563</v>
+        <v>0.09995455350297436</v>
       </c>
       <c r="G7">
-        <v>0.0288775858811481</v>
+        <v>0.03023242323965445</v>
       </c>
       <c r="H7">
-        <v>0.003283156312093337</v>
+        <v>0.006443787040169778</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1242,70 +1242,70 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06331422504153093</v>
+        <v>0.06223941439798596</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1002615268294124</v>
+        <v>0.09657993050181644</v>
       </c>
       <c r="O7">
-        <v>0.06725321691988492</v>
+        <v>0.06590049402994544</v>
       </c>
       <c r="P7">
-        <v>0.004003728841400924</v>
+        <v>0.007113520183031682</v>
       </c>
       <c r="Q7">
-        <v>0.06963223952979385</v>
+        <v>0.06811166670815574</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.08435478409610062</v>
+        <v>0.0817954745724271</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.00525504114395989</v>
+        <v>0.00827654720253224</v>
       </c>
       <c r="V7">
-        <v>0.007331763992341479</v>
+        <v>0.01020674862366638</v>
       </c>
       <c r="W7">
-        <v>0.01761187043567807</v>
+        <v>0.01976155083610513</v>
       </c>
       <c r="X7">
-        <v>0.01538450470174391</v>
+        <v>0.01769133501102493</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.09222229625341472</v>
+        <v>0.08910790105180653</v>
       </c>
       <c r="AA7">
-        <v>0.05417514655263164</v>
+        <v>0.05374513587599777</v>
       </c>
       <c r="AB7">
-        <v>0.002825004504047925</v>
+        <v>0.00601795974613601</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.002708734731492585</v>
       </c>
       <c r="AD7">
-        <v>0.01660424409236048</v>
+        <v>0.01882501671872905</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.05382444335678144</v>
+        <v>0.05341917624804169</v>
       </c>
       <c r="AG7">
-        <v>0.009961292076737949</v>
+        <v>0.01265075257410666</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1325,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1834956796447767</v>
+        <v>0.1580051039007256</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1013653998966378</v>
+        <v>0.09079692480540891</v>
       </c>
       <c r="G8">
-        <v>0.07083897521259609</v>
+        <v>0.0658167905163709</v>
       </c>
       <c r="H8">
-        <v>0.01246315626335779</v>
+        <v>0.01804716758549212</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1349,70 +1349,70 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.03590129223898606</v>
+        <v>0.0372268714065558</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.007045778633510842</v>
       </c>
       <c r="N8">
-        <v>0.07946374570585092</v>
+        <v>0.07287454219753219</v>
       </c>
       <c r="O8">
-        <v>0.08759969714429296</v>
+        <v>0.07953228746593305</v>
       </c>
       <c r="P8">
-        <v>0.005556415247554228</v>
+        <v>0.01239529974115284</v>
       </c>
       <c r="Q8">
-        <v>0.0398144334210401</v>
+        <v>0.04042904110809887</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.06272439429850837</v>
+        <v>0.05917653300075221</v>
       </c>
       <c r="T8">
-        <v>0.0052544177808352</v>
+        <v>0.01214817164306495</v>
       </c>
       <c r="U8">
-        <v>0.004298744713910604</v>
+        <v>0.01136613307171947</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.0004335418449815712</v>
       </c>
       <c r="W8">
-        <v>0.02901107276306342</v>
+        <v>0.03158852333366565</v>
       </c>
       <c r="X8">
-        <v>0.00409218261722992</v>
+        <v>0.01119710086544193</v>
       </c>
       <c r="Y8">
-        <v>0.005460394285871091</v>
+        <v>0.01231672465277503</v>
       </c>
       <c r="Z8">
-        <v>0.07407572055276264</v>
+        <v>0.06846545750222487</v>
       </c>
       <c r="AA8">
-        <v>0.08633621711305126</v>
+        <v>0.07849836681591879</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.00780754689785955</v>
       </c>
       <c r="AC8">
-        <v>0.01148674111189283</v>
+        <v>0.01724815552109543</v>
       </c>
       <c r="AD8">
-        <v>0.01521390695719346</v>
+        <v>0.02029813940544459</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.001584499536159272</v>
       </c>
       <c r="AF8">
-        <v>0.05886491687761067</v>
+        <v>0.05601827698952876</v>
       </c>
       <c r="AG8">
-        <v>0.02668249615297776</v>
+        <v>0.02968302155858679</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1957726136178842</v>
+        <v>0.1806329265354181</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1853713854673107</v>
+        <v>0.1713178455537205</v>
       </c>
       <c r="G9">
-        <v>0.02681750665809193</v>
+        <v>0.0293209390644901</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1453,76 +1453,76 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0002326524439734251</v>
       </c>
       <c r="L9">
-        <v>0.04763702556548758</v>
+        <v>0.04796638187324929</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.09583855811056877</v>
+        <v>0.09113447439072815</v>
       </c>
       <c r="O9">
-        <v>0.0419315603314661</v>
+        <v>0.04285670925345969</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.02758427642173727</v>
+        <v>0.03000763897523859</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.08417314461451683</v>
+        <v>0.08068722048689757</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.01363870649944202</v>
+        <v>0.01751833374305372</v>
       </c>
       <c r="V9">
-        <v>0.003984348547693557</v>
+        <v>0.008872131117273006</v>
       </c>
       <c r="W9">
-        <v>0.005588194314427117</v>
+        <v>0.01030849545646426</v>
       </c>
       <c r="X9">
-        <v>0.01640584255277236</v>
+        <v>0.01999651190153646</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.08914560740918308</v>
+        <v>0.08514043437089841</v>
       </c>
       <c r="AA9">
-        <v>0.04077308110825361</v>
+        <v>0.04181920410275849</v>
       </c>
       <c r="AB9">
-        <v>0.02269628668325257</v>
+        <v>0.02563007705730477</v>
       </c>
       <c r="AC9">
-        <v>0.004080368809674511</v>
+        <v>0.008958124473373659</v>
       </c>
       <c r="AD9">
-        <v>0.03421416199164746</v>
+        <v>0.03594519943339433</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.06291112390344816</v>
+        <v>0.06164548407933543</v>
       </c>
       <c r="AG9">
-        <v>0.001436207393141966</v>
+        <v>0.006590079338018875</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.003419136349413239</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07743927575422418</v>
+        <v>0.06924636725295533</v>
       </c>
       <c r="E10">
-        <v>0.05849688453633226</v>
+        <v>0.05464774065598319</v>
       </c>
       <c r="F10">
-        <v>0.07308787351819741</v>
+        <v>0.06589280456457718</v>
       </c>
       <c r="G10">
-        <v>0.1578767916194171</v>
+        <v>0.1312383958725953</v>
       </c>
       <c r="H10">
-        <v>0.005557999452442799</v>
+        <v>0.01384850855746425</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1563,76 +1563,76 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0008872197909619757</v>
+        <v>0.0102488063123599</v>
       </c>
       <c r="M10">
-        <v>0.02775088405382907</v>
+        <v>0.03095224333300367</v>
       </c>
       <c r="N10">
-        <v>0.01465363126835</v>
+        <v>0.0208583802793907</v>
       </c>
       <c r="O10">
-        <v>0.1363406612204721</v>
+        <v>0.1146408120500768</v>
       </c>
       <c r="P10">
-        <v>0.01083851842707292</v>
+        <v>0.01791812806125941</v>
       </c>
       <c r="Q10">
-        <v>0.02010066159845228</v>
+        <v>0.02505632767351039</v>
       </c>
       <c r="R10">
-        <v>0.006855177940440701</v>
+        <v>0.01484822523304528</v>
       </c>
       <c r="S10">
-        <v>0.02893563080376973</v>
+        <v>0.0318653104962467</v>
       </c>
       <c r="T10">
-        <v>0.03802782309839475</v>
+        <v>0.03887253142893048</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.007676464114610902</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.0004747277189532478</v>
       </c>
       <c r="W10">
-        <v>0.03700291170071107</v>
+        <v>0.03808264705701273</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.02688639977265927</v>
+        <v>0.03028599781655434</v>
       </c>
       <c r="Z10">
-        <v>0.0146108576454625</v>
+        <v>0.02082541526765848</v>
       </c>
       <c r="AA10">
-        <v>0.128946610214697</v>
+        <v>0.1089423240170391</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.03842317715414892</v>
+        <v>0.03917722507437172</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.007749737172009733</v>
       </c>
       <c r="AE10">
-        <v>0.01817487675624565</v>
+        <v>0.02357215318391751</v>
       </c>
       <c r="AF10">
-        <v>0.02015001577870707</v>
+        <v>0.02509436422550911</v>
       </c>
       <c r="AG10">
-        <v>0.05895611789501115</v>
+        <v>0.05500166515511898</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.00298269742584543</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1646,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2123018388286744</v>
+        <v>0.181224900701685</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.255266061728484</v>
+        <v>0.216068631275864</v>
       </c>
       <c r="G11">
-        <v>0.02915759188429462</v>
+        <v>0.03269600000162963</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.004855283833254429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1670,73 +1670,73 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02122820951320909</v>
+        <v>0.02626531781282242</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.0603275137886581</v>
+        <v>0.05797462224941275</v>
       </c>
       <c r="O11">
-        <v>0.05520945766510201</v>
+        <v>0.05382390901415707</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.001834756274399896</v>
       </c>
       <c r="Q11">
-        <v>0.01313283773605224</v>
+        <v>0.0197000191977667</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.07268574109521032</v>
+        <v>0.06799707147764901</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.008300891899903459</v>
+        <v>0.01578133971282854</v>
       </c>
       <c r="V11">
-        <v>0.00207217596213052</v>
+        <v>0.01072988793945511</v>
       </c>
       <c r="W11">
-        <v>0.007424265378186816</v>
+        <v>0.01507040079027189</v>
       </c>
       <c r="X11">
-        <v>0.009819785055328134</v>
+        <v>0.01701315307535572</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.003086109401978082</v>
       </c>
       <c r="Z11">
-        <v>0.07691410056568945</v>
+        <v>0.07142624599114418</v>
       </c>
       <c r="AA11">
-        <v>0.0446541353857964</v>
+        <v>0.04526360509614106</v>
       </c>
       <c r="AB11">
-        <v>0.01588241376615284</v>
+        <v>0.02192990909032822</v>
       </c>
       <c r="AC11">
-        <v>0.01189420139298094</v>
+        <v>0.01869549245192035</v>
       </c>
       <c r="AD11">
-        <v>0.03788209547579993</v>
+        <v>0.03977152079586736</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.0008791183513470924</v>
       </c>
       <c r="AF11">
-        <v>0.06372636957823891</v>
+        <v>0.06073107418545293</v>
       </c>
       <c r="AG11">
-        <v>0.002120313300107783</v>
+        <v>0.0107689270357504</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.006412704243518187</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1873,94 +1873,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07144874099046693</v>
+        <v>0.06967628974079636</v>
       </c>
       <c r="E2">
-        <v>0.07144874099046693</v>
+        <v>0.06967628974079636</v>
       </c>
       <c r="F2">
-        <v>0.2760087263282099</v>
+        <v>0.2605916761101431</v>
       </c>
       <c r="G2">
-        <v>0.3031584707682145</v>
+        <v>0.2899199821049726</v>
       </c>
       <c r="H2">
-        <v>0.3031584707682145</v>
+        <v>0.2899199821049726</v>
       </c>
       <c r="I2">
-        <v>0.3031584707682145</v>
+        <v>0.2899199821049726</v>
       </c>
       <c r="J2">
-        <v>0.3321854956621491</v>
+        <v>0.3209581345329036</v>
       </c>
       <c r="K2">
-        <v>0.3321854956621491</v>
+        <v>0.3209581345329036</v>
       </c>
       <c r="L2">
-        <v>0.4147101238701492</v>
+        <v>0.4007224567851391</v>
       </c>
       <c r="M2">
-        <v>0.4392582218666473</v>
+        <v>0.4276811563195653</v>
       </c>
       <c r="N2">
-        <v>0.4963775791609347</v>
+        <v>0.4843060953417382</v>
       </c>
       <c r="O2">
-        <v>0.6031320044319766</v>
+        <v>0.5861391670960994</v>
       </c>
       <c r="P2">
-        <v>0.6031320044319766</v>
+        <v>0.5873895316990522</v>
       </c>
       <c r="Q2">
-        <v>0.6154543084381957</v>
+        <v>0.6032128517528305</v>
       </c>
       <c r="R2">
-        <v>0.6154543084381957</v>
+        <v>0.6032128517528305</v>
       </c>
       <c r="S2">
-        <v>0.6987702416162792</v>
+        <v>0.6836979027474125</v>
       </c>
       <c r="T2">
-        <v>0.7090007368916911</v>
+        <v>0.6976159817970489</v>
       </c>
       <c r="U2">
-        <v>0.7130581014745547</v>
+        <v>0.7059115096324395</v>
       </c>
       <c r="V2">
-        <v>0.7130581014745547</v>
+        <v>0.7059115096324395</v>
       </c>
       <c r="W2">
-        <v>0.7130581014745547</v>
+        <v>0.7064500864259512</v>
       </c>
       <c r="X2">
-        <v>0.7130581014745547</v>
+        <v>0.7064500864259512</v>
       </c>
       <c r="Y2">
-        <v>0.7130581014745547</v>
+        <v>0.7064500864259512</v>
       </c>
       <c r="Z2">
-        <v>0.7595215183679401</v>
+        <v>0.7533694848360739</v>
       </c>
       <c r="AA2">
-        <v>0.8038462065414402</v>
+        <v>0.7983409070312349</v>
       </c>
       <c r="AB2">
-        <v>0.8172849146945662</v>
+        <v>0.815181059516466</v>
       </c>
       <c r="AC2">
-        <v>0.8389256981179278</v>
+        <v>0.8394917468999241</v>
       </c>
       <c r="AD2">
-        <v>0.8969390433136333</v>
+        <v>0.8969309393392013</v>
       </c>
       <c r="AE2">
-        <v>0.8969390433136333</v>
+        <v>0.8969309393392013</v>
       </c>
       <c r="AF2">
-        <v>0.9887837975224865</v>
+        <v>0.9851841286465723</v>
       </c>
       <c r="AG2">
-        <v>0.9887837975224865</v>
+        <v>0.9851841286465723</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1980,100 +1980,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.004722743025748623</v>
       </c>
       <c r="E3">
-        <v>0.1418159399475818</v>
+        <v>0.1349184944054849</v>
       </c>
       <c r="F3">
-        <v>0.2405381425189292</v>
+        <v>0.2273719651724017</v>
       </c>
       <c r="G3">
-        <v>0.4474824400540667</v>
+        <v>0.4146083191450612</v>
       </c>
       <c r="H3">
-        <v>0.4474824400540667</v>
+        <v>0.4146083191450612</v>
       </c>
       <c r="I3">
-        <v>0.4474824400540667</v>
+        <v>0.4146083191450612</v>
       </c>
       <c r="J3">
-        <v>0.4474824400540667</v>
+        <v>0.4146083191450612</v>
       </c>
       <c r="K3">
-        <v>0.4586169142732601</v>
+        <v>0.4303508610629638</v>
       </c>
       <c r="L3">
-        <v>0.4693470313453768</v>
+        <v>0.4457392596217159</v>
       </c>
       <c r="M3">
-        <v>0.5418734567260513</v>
+        <v>0.5152499912855135</v>
       </c>
       <c r="N3">
-        <v>0.5418734567260513</v>
+        <v>0.5185199460316401</v>
       </c>
       <c r="O3">
-        <v>0.666408814353436</v>
+        <v>0.6335810484625598</v>
       </c>
       <c r="P3">
-        <v>0.6677904357403492</v>
+        <v>0.6407818641162082</v>
       </c>
       <c r="Q3">
-        <v>0.6870727589312662</v>
+        <v>0.6636604406647775</v>
       </c>
       <c r="R3">
-        <v>0.6870727589312662</v>
+        <v>0.6656147831111447</v>
       </c>
       <c r="S3">
-        <v>0.7283440183278794</v>
+        <v>0.7077516707550627</v>
       </c>
       <c r="T3">
-        <v>0.7675028542610585</v>
+        <v>0.7480384594290547</v>
       </c>
       <c r="U3">
-        <v>0.7675028542610585</v>
+        <v>0.7480384594290547</v>
       </c>
       <c r="V3">
-        <v>0.7675028542610585</v>
+        <v>0.7484486306161822</v>
       </c>
       <c r="W3">
-        <v>0.7675028542610585</v>
+        <v>0.7484486306161822</v>
       </c>
       <c r="X3">
-        <v>0.7675028542610585</v>
+        <v>0.7484486306161822</v>
       </c>
       <c r="Y3">
-        <v>0.7675028542610585</v>
+        <v>0.7484486306161822</v>
       </c>
       <c r="Z3">
-        <v>0.7840243005079003</v>
+        <v>0.7689091808178834</v>
       </c>
       <c r="AA3">
-        <v>0.8382360889924451</v>
+        <v>0.8223796196887696</v>
       </c>
       <c r="AB3">
-        <v>0.8382360889924451</v>
+        <v>0.8223796196887696</v>
       </c>
       <c r="AC3">
-        <v>0.8868784073471594</v>
+        <v>0.8709722151117886</v>
       </c>
       <c r="AD3">
-        <v>0.8975378984335816</v>
+        <v>0.8862987581450529</v>
       </c>
       <c r="AE3">
-        <v>0.9142848435757482</v>
+        <v>0.906956804389182</v>
       </c>
       <c r="AF3">
-        <v>0.96462731904845</v>
+        <v>0.9570384284028925</v>
       </c>
       <c r="AG3">
-        <v>0.9975506384853748</v>
+        <v>0.9918640380820618</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -2087,100 +2087,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06077831184018054</v>
+        <v>0.05908931776640827</v>
       </c>
       <c r="E4">
-        <v>0.08005752919563724</v>
+        <v>0.05908931776640827</v>
       </c>
       <c r="F4">
-        <v>0.2772970542924105</v>
+        <v>0.3723603987338174</v>
       </c>
       <c r="G4">
-        <v>0.3600231790004692</v>
+        <v>0.4723311775398032</v>
       </c>
       <c r="H4">
-        <v>0.3600231790004692</v>
+        <v>0.4723311775398032</v>
       </c>
       <c r="I4">
-        <v>0.3600231790004692</v>
+        <v>0.4723311775398032</v>
       </c>
       <c r="J4">
-        <v>0.3600231790004692</v>
+        <v>0.4723311775398032</v>
       </c>
       <c r="K4">
-        <v>0.3657567915516732</v>
+        <v>0.4723311775398032</v>
       </c>
       <c r="L4">
-        <v>0.4269813536495624</v>
+        <v>0.5322517108188568</v>
       </c>
       <c r="M4">
-        <v>0.4617560978290605</v>
+        <v>0.5429050479884894</v>
       </c>
       <c r="N4">
-        <v>0.4908114414619111</v>
+        <v>0.5429050479884894</v>
       </c>
       <c r="O4">
-        <v>0.6116244924187603</v>
+        <v>0.7138190775379705</v>
       </c>
       <c r="P4">
-        <v>0.6116244924187603</v>
+        <v>0.7138190775379705</v>
       </c>
       <c r="Q4">
-        <v>0.625293943163945</v>
+        <v>0.7138190775379705</v>
       </c>
       <c r="R4">
-        <v>0.625293943163945</v>
+        <v>0.7138190775379705</v>
       </c>
       <c r="S4">
-        <v>0.6958044993309661</v>
+        <v>0.7910363231152487</v>
       </c>
       <c r="T4">
-        <v>0.727272104093272</v>
+        <v>0.7955295616887125</v>
       </c>
       <c r="U4">
-        <v>0.727272104093272</v>
+        <v>0.7955295616887125</v>
       </c>
       <c r="V4">
-        <v>0.727272104093272</v>
+        <v>0.7955295616887125</v>
       </c>
       <c r="W4">
-        <v>0.727272104093272</v>
+        <v>0.7955295616887125</v>
       </c>
       <c r="X4">
-        <v>0.727272104093272</v>
+        <v>0.7955295616887125</v>
       </c>
       <c r="Y4">
-        <v>0.727272104093272</v>
+        <v>0.7955295616887125</v>
       </c>
       <c r="Z4">
-        <v>0.7671975902956818</v>
+        <v>0.8157770147095313</v>
       </c>
       <c r="AA4">
-        <v>0.8161868505644967</v>
+        <v>0.8529072582205852</v>
       </c>
       <c r="AB4">
-        <v>0.8202347353612636</v>
+        <v>0.8529072582205852</v>
       </c>
       <c r="AC4">
-        <v>0.8531043471617504</v>
+        <v>0.8600119686729847</v>
       </c>
       <c r="AD4">
-        <v>0.8955094926295051</v>
+        <v>0.884878200533311</v>
       </c>
       <c r="AE4">
-        <v>0.8955094926295051</v>
+        <v>0.884878200533311</v>
       </c>
       <c r="AF4">
-        <v>0.9863696653329752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9897443636408162</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -2194,100 +2194,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004323856466696732</v>
+        <v>0.009659423774374303</v>
       </c>
       <c r="E5">
-        <v>0.1114214385540718</v>
+        <v>0.1094632964654137</v>
       </c>
       <c r="F5">
-        <v>0.1536719009689783</v>
+        <v>0.1523887419961599</v>
       </c>
       <c r="G5">
-        <v>0.3384978699363506</v>
+        <v>0.3203694036297314</v>
       </c>
       <c r="H5">
-        <v>0.3384978699363506</v>
+        <v>0.323871916638055</v>
       </c>
       <c r="I5">
-        <v>0.3384978699363506</v>
+        <v>0.323871916638055</v>
       </c>
       <c r="J5">
-        <v>0.3384978699363506</v>
+        <v>0.323871916638055</v>
       </c>
       <c r="K5">
-        <v>0.3507269103505737</v>
+        <v>0.3404651014124417</v>
       </c>
       <c r="L5">
-        <v>0.3507269103505737</v>
+        <v>0.3404651014124417</v>
       </c>
       <c r="M5">
-        <v>0.4644566307552349</v>
+        <v>0.4460861267866234</v>
       </c>
       <c r="N5">
-        <v>0.4644566307552349</v>
+        <v>0.4460861267866234</v>
       </c>
       <c r="O5">
-        <v>0.5990392617699958</v>
+        <v>0.5699975675748952</v>
       </c>
       <c r="P5">
-        <v>0.6236396265725422</v>
+        <v>0.5974418352755811</v>
       </c>
       <c r="Q5">
-        <v>0.6389519079661218</v>
+        <v>0.6167393791386632</v>
       </c>
       <c r="R5">
-        <v>0.653325111147801</v>
+        <v>0.6352132427528279</v>
       </c>
       <c r="S5">
-        <v>0.6565817763460957</v>
+        <v>0.6439366163042702</v>
       </c>
       <c r="T5">
-        <v>0.7580867534121263</v>
+        <v>0.7388351272930553</v>
       </c>
       <c r="U5">
-        <v>0.7580867534121263</v>
+        <v>0.7388351272930553</v>
       </c>
       <c r="V5">
-        <v>0.759305816339746</v>
+        <v>0.7457712878900966</v>
       </c>
       <c r="W5">
-        <v>0.7604542075638174</v>
+        <v>0.7526454612259785</v>
       </c>
       <c r="X5">
-        <v>0.7604542075638174</v>
+        <v>0.7526454612259785</v>
       </c>
       <c r="Y5">
-        <v>0.7604542075638174</v>
+        <v>0.7545481254634814</v>
       </c>
       <c r="Z5">
-        <v>0.7604542075638174</v>
+        <v>0.7601466265417763</v>
       </c>
       <c r="AA5">
-        <v>0.8503783854275219</v>
+        <v>0.8448874366609707</v>
       </c>
       <c r="AB5">
-        <v>0.8503783854275219</v>
+        <v>0.8448874366609707</v>
       </c>
       <c r="AC5">
-        <v>0.8921354094244562</v>
+        <v>0.8873800796053186</v>
       </c>
       <c r="AD5">
-        <v>0.8921354094244562</v>
+        <v>0.8873800796053186</v>
       </c>
       <c r="AE5">
-        <v>0.9220476627335137</v>
+        <v>0.9194834881441358</v>
       </c>
       <c r="AF5">
-        <v>0.9373729195964091</v>
+        <v>0.9387924129951489</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9995905102010405</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9995905102010405</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -2301,100 +2301,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1141388265656695</v>
+        <v>0.1136507442695177</v>
       </c>
       <c r="E6">
-        <v>0.1141388265656695</v>
+        <v>0.1136507442695177</v>
       </c>
       <c r="F6">
-        <v>0.3560753360214263</v>
+        <v>0.3540850505096665</v>
       </c>
       <c r="G6">
-        <v>0.4029672212766958</v>
+        <v>0.4010224823140814</v>
       </c>
       <c r="H6">
-        <v>0.4029672212766958</v>
+        <v>0.4010224823140814</v>
       </c>
       <c r="I6">
-        <v>0.4029672212766958</v>
+        <v>0.4010224823140814</v>
       </c>
       <c r="J6">
-        <v>0.4038520533990337</v>
+        <v>0.4023179436221941</v>
       </c>
       <c r="K6">
-        <v>0.4038520533990337</v>
+        <v>0.4023179436221941</v>
       </c>
       <c r="L6">
-        <v>0.4803569460874281</v>
+        <v>0.4786333929158884</v>
       </c>
       <c r="M6">
-        <v>0.4952711365267599</v>
+        <v>0.4938468844994055</v>
       </c>
       <c r="N6">
-        <v>0.5544953726043356</v>
+        <v>0.5530188054538949</v>
       </c>
       <c r="O6">
-        <v>0.6370234035169775</v>
+        <v>0.6353095971876265</v>
       </c>
       <c r="P6">
-        <v>0.6370234035169775</v>
+        <v>0.6353095971876265</v>
       </c>
       <c r="Q6">
-        <v>0.6517593645116886</v>
+        <v>0.6503462736417449</v>
       </c>
       <c r="R6">
-        <v>0.6517593645116886</v>
+        <v>0.6503462736417449</v>
       </c>
       <c r="S6">
-        <v>0.7230733419270958</v>
+        <v>0.7215119994559995</v>
       </c>
       <c r="T6">
-        <v>0.725395929577946</v>
+        <v>0.7242338071815547</v>
       </c>
       <c r="U6">
-        <v>0.728153144701146</v>
+        <v>0.7273867934529856</v>
       </c>
       <c r="V6">
-        <v>0.728153144701146</v>
+        <v>0.7273867934529856</v>
       </c>
       <c r="W6">
-        <v>0.728153144701146</v>
+        <v>0.7273867934529856</v>
       </c>
       <c r="X6">
-        <v>0.728153144701146</v>
+        <v>0.7273867934529856</v>
       </c>
       <c r="Y6">
-        <v>0.728153144701146</v>
+        <v>0.7273867934529856</v>
       </c>
       <c r="Z6">
-        <v>0.7778111455322412</v>
+        <v>0.7770683907038684</v>
       </c>
       <c r="AA6">
-        <v>0.7910141181043917</v>
+        <v>0.7905842435540165</v>
       </c>
       <c r="AB6">
-        <v>0.8177077516341316</v>
+        <v>0.817483704078901</v>
       </c>
       <c r="AC6">
-        <v>0.8190790698609068</v>
+        <v>0.8192617910479408</v>
       </c>
       <c r="AD6">
-        <v>0.8835473057847835</v>
+        <v>0.8836360988098598</v>
       </c>
       <c r="AE6">
-        <v>0.8835473057847835</v>
+        <v>0.8836360988098598</v>
       </c>
       <c r="AF6">
-        <v>0.9841785504379543</v>
+        <v>0.98388644872364</v>
       </c>
       <c r="AG6">
-        <v>0.9841785504379543</v>
+        <v>0.98388644872364</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -2408,100 +2408,100 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1999316122606811</v>
+        <v>0.1892178772042002</v>
       </c>
       <c r="E7">
-        <v>0.1999316122606811</v>
+        <v>0.1892178772042002</v>
       </c>
       <c r="F7">
-        <v>0.3038239294389374</v>
+        <v>0.2891724307071745</v>
       </c>
       <c r="G7">
-        <v>0.3327015153200855</v>
+        <v>0.319404853946829</v>
       </c>
       <c r="H7">
-        <v>0.3359846716321788</v>
+        <v>0.3258486409869988</v>
       </c>
       <c r="I7">
-        <v>0.3359846716321788</v>
+        <v>0.3258486409869988</v>
       </c>
       <c r="J7">
-        <v>0.3359846716321788</v>
+        <v>0.3258486409869988</v>
       </c>
       <c r="K7">
-        <v>0.3359846716321788</v>
+        <v>0.3258486409869988</v>
       </c>
       <c r="L7">
-        <v>0.3992988966737098</v>
+        <v>0.3880880553849848</v>
       </c>
       <c r="M7">
-        <v>0.3992988966737098</v>
+        <v>0.3880880553849848</v>
       </c>
       <c r="N7">
-        <v>0.4995604235031221</v>
+        <v>0.4846679858868012</v>
       </c>
       <c r="O7">
-        <v>0.5668136404230071</v>
+        <v>0.5505684799167466</v>
       </c>
       <c r="P7">
-        <v>0.570817369264408</v>
+        <v>0.5576820000997783</v>
       </c>
       <c r="Q7">
-        <v>0.6404496087942018</v>
+        <v>0.625793666807934</v>
       </c>
       <c r="R7">
-        <v>0.6404496087942018</v>
+        <v>0.625793666807934</v>
       </c>
       <c r="S7">
-        <v>0.7248043928903024</v>
+        <v>0.7075891413803611</v>
       </c>
       <c r="T7">
-        <v>0.7248043928903024</v>
+        <v>0.7075891413803611</v>
       </c>
       <c r="U7">
-        <v>0.7300594340342623</v>
+        <v>0.7158656885828933</v>
       </c>
       <c r="V7">
-        <v>0.7373911980266038</v>
+        <v>0.7260724372065597</v>
       </c>
       <c r="W7">
-        <v>0.7550030684622818</v>
+        <v>0.7458339880426648</v>
       </c>
       <c r="X7">
-        <v>0.7703875731640257</v>
+        <v>0.7635253230536897</v>
       </c>
       <c r="Y7">
-        <v>0.7703875731640257</v>
+        <v>0.7635253230536897</v>
       </c>
       <c r="Z7">
-        <v>0.8626098694174404</v>
+        <v>0.8526332241054962</v>
       </c>
       <c r="AA7">
-        <v>0.9167850159700721</v>
+        <v>0.906378359981494</v>
       </c>
       <c r="AB7">
-        <v>0.91961002047412</v>
+        <v>0.91239631972763</v>
       </c>
       <c r="AC7">
-        <v>0.91961002047412</v>
+        <v>0.9151050544591226</v>
       </c>
       <c r="AD7">
-        <v>0.9362142645664805</v>
+        <v>0.9339300711778517</v>
       </c>
       <c r="AE7">
-        <v>0.9362142645664805</v>
+        <v>0.9339300711778517</v>
       </c>
       <c r="AF7">
-        <v>0.990038707923262</v>
+        <v>0.9873492474258934</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -2515,91 +2515,91 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1834956796447767</v>
+        <v>0.1580051039007256</v>
       </c>
       <c r="E8">
-        <v>0.1834956796447767</v>
+        <v>0.1580051039007256</v>
       </c>
       <c r="F8">
-        <v>0.2848610795414145</v>
+        <v>0.2488020287061345</v>
       </c>
       <c r="G8">
-        <v>0.3557000547540106</v>
+        <v>0.3146188192225054</v>
       </c>
       <c r="H8">
-        <v>0.3681632110173684</v>
+        <v>0.3326659868079975</v>
       </c>
       <c r="I8">
-        <v>0.3681632110173684</v>
+        <v>0.3326659868079975</v>
       </c>
       <c r="J8">
-        <v>0.3681632110173684</v>
+        <v>0.3326659868079975</v>
       </c>
       <c r="K8">
-        <v>0.3681632110173684</v>
+        <v>0.3326659868079975</v>
       </c>
       <c r="L8">
-        <v>0.4040645032563545</v>
+        <v>0.3698928582145533</v>
       </c>
       <c r="M8">
-        <v>0.4040645032563545</v>
+        <v>0.3769386368480642</v>
       </c>
       <c r="N8">
-        <v>0.4835282489622054</v>
+        <v>0.4498131790455964</v>
       </c>
       <c r="O8">
-        <v>0.5711279461064983</v>
+        <v>0.5293454665115294</v>
       </c>
       <c r="P8">
-        <v>0.5766843613540525</v>
+        <v>0.5417407662526822</v>
       </c>
       <c r="Q8">
-        <v>0.6164987947750926</v>
+        <v>0.5821698073607811</v>
       </c>
       <c r="R8">
-        <v>0.6164987947750926</v>
+        <v>0.5821698073607811</v>
       </c>
       <c r="S8">
-        <v>0.679223189073601</v>
+        <v>0.6413463403615333</v>
       </c>
       <c r="T8">
-        <v>0.6844776068544363</v>
+        <v>0.6534945120045982</v>
       </c>
       <c r="U8">
-        <v>0.6887763515683468</v>
+        <v>0.6648606450763177</v>
       </c>
       <c r="V8">
-        <v>0.6887763515683468</v>
+        <v>0.6652941869212993</v>
       </c>
       <c r="W8">
-        <v>0.7177874243314102</v>
+        <v>0.696882710254965</v>
       </c>
       <c r="X8">
-        <v>0.7218796069486401</v>
+        <v>0.7080798111204069</v>
       </c>
       <c r="Y8">
-        <v>0.7273400012345111</v>
+        <v>0.7203965357731819</v>
       </c>
       <c r="Z8">
-        <v>0.8014157217872738</v>
+        <v>0.7888619932754067</v>
       </c>
       <c r="AA8">
-        <v>0.8877519389003251</v>
+        <v>0.8673603600913256</v>
       </c>
       <c r="AB8">
-        <v>0.8877519389003251</v>
+        <v>0.8751679069891851</v>
       </c>
       <c r="AC8">
-        <v>0.899238680012218</v>
+        <v>0.8924160625102805</v>
       </c>
       <c r="AD8">
-        <v>0.9144525869694115</v>
+        <v>0.9127142019157251</v>
       </c>
       <c r="AE8">
-        <v>0.9144525869694115</v>
+        <v>0.9142987014518843</v>
       </c>
       <c r="AF8">
-        <v>0.9733175038470221</v>
+        <v>0.9703169784414131</v>
       </c>
       <c r="AG8">
         <v>0.9999999999999999</v>
@@ -2622,100 +2622,100 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1957726136178842</v>
+        <v>0.1806329265354181</v>
       </c>
       <c r="E9">
-        <v>0.1957726136178842</v>
+        <v>0.1806329265354181</v>
       </c>
       <c r="F9">
-        <v>0.3811439990851949</v>
+        <v>0.3519507720891385</v>
       </c>
       <c r="G9">
-        <v>0.4079615057432868</v>
+        <v>0.3812717111536286</v>
       </c>
       <c r="H9">
-        <v>0.4079615057432868</v>
+        <v>0.3812717111536286</v>
       </c>
       <c r="I9">
-        <v>0.4079615057432868</v>
+        <v>0.3812717111536286</v>
       </c>
       <c r="J9">
-        <v>0.4079615057432868</v>
+        <v>0.3812717111536286</v>
       </c>
       <c r="K9">
-        <v>0.4079615057432868</v>
+        <v>0.381504363597602</v>
       </c>
       <c r="L9">
-        <v>0.4555985313087744</v>
+        <v>0.4294707454708513</v>
       </c>
       <c r="M9">
-        <v>0.4555985313087744</v>
+        <v>0.4294707454708513</v>
       </c>
       <c r="N9">
-        <v>0.5514370894193432</v>
+        <v>0.5206052198615795</v>
       </c>
       <c r="O9">
-        <v>0.5933686497508093</v>
+        <v>0.5634619291150391</v>
       </c>
       <c r="P9">
-        <v>0.5933686497508093</v>
+        <v>0.5634619291150391</v>
       </c>
       <c r="Q9">
-        <v>0.6209529261725465</v>
+        <v>0.5934695680902777</v>
       </c>
       <c r="R9">
-        <v>0.6209529261725465</v>
+        <v>0.5934695680902777</v>
       </c>
       <c r="S9">
-        <v>0.7051260707870634</v>
+        <v>0.6741567885771753</v>
       </c>
       <c r="T9">
-        <v>0.7051260707870634</v>
+        <v>0.6741567885771753</v>
       </c>
       <c r="U9">
-        <v>0.7187647772865053</v>
+        <v>0.691675122320229</v>
       </c>
       <c r="V9">
-        <v>0.7227491258341989</v>
+        <v>0.700547253437502</v>
       </c>
       <c r="W9">
-        <v>0.7283373201486261</v>
+        <v>0.7108557488939663</v>
       </c>
       <c r="X9">
-        <v>0.7447431627013984</v>
+        <v>0.7308522607955028</v>
       </c>
       <c r="Y9">
-        <v>0.7447431627013984</v>
+        <v>0.7308522607955028</v>
       </c>
       <c r="Z9">
-        <v>0.8338887701105815</v>
+        <v>0.8159926951664012</v>
       </c>
       <c r="AA9">
-        <v>0.8746618512188351</v>
+        <v>0.8578118992691597</v>
       </c>
       <c r="AB9">
-        <v>0.8973581379020876</v>
+        <v>0.8834419763264645</v>
       </c>
       <c r="AC9">
-        <v>0.9014385067117622</v>
+        <v>0.8924001007998381</v>
       </c>
       <c r="AD9">
-        <v>0.9356526687034097</v>
+        <v>0.9283453002332325</v>
       </c>
       <c r="AE9">
-        <v>0.9356526687034097</v>
+        <v>0.9283453002332325</v>
       </c>
       <c r="AF9">
-        <v>0.9985637926068578</v>
+        <v>0.9899907843125679</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>0.9965808636505868</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -2729,100 +2729,100 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07743927575422418</v>
+        <v>0.06924636725295533</v>
       </c>
       <c r="E10">
-        <v>0.1359361602905564</v>
+        <v>0.1238941079089385</v>
       </c>
       <c r="F10">
-        <v>0.2090240338087538</v>
+        <v>0.1897869124735157</v>
       </c>
       <c r="G10">
-        <v>0.3669008254281709</v>
+        <v>0.321025308346111</v>
       </c>
       <c r="H10">
-        <v>0.3724588248806137</v>
+        <v>0.3348738169035752</v>
       </c>
       <c r="I10">
-        <v>0.3724588248806137</v>
+        <v>0.3348738169035752</v>
       </c>
       <c r="J10">
-        <v>0.3724588248806137</v>
+        <v>0.3348738169035752</v>
       </c>
       <c r="K10">
-        <v>0.3724588248806137</v>
+        <v>0.3348738169035752</v>
       </c>
       <c r="L10">
-        <v>0.3733460446715757</v>
+        <v>0.3451226232159351</v>
       </c>
       <c r="M10">
-        <v>0.4010969287254048</v>
+        <v>0.3760748665489388</v>
       </c>
       <c r="N10">
-        <v>0.4157505599937548</v>
+        <v>0.3969332468283295</v>
       </c>
       <c r="O10">
-        <v>0.5520912212142268</v>
+        <v>0.5115740588784063</v>
       </c>
       <c r="P10">
-        <v>0.5629297396412998</v>
+        <v>0.5294921869396657</v>
       </c>
       <c r="Q10">
-        <v>0.583030401239752</v>
+        <v>0.5545485146131761</v>
       </c>
       <c r="R10">
-        <v>0.5898855791801927</v>
+        <v>0.5693967398462214</v>
       </c>
       <c r="S10">
-        <v>0.6188212099839624</v>
+        <v>0.6012620503424682</v>
       </c>
       <c r="T10">
-        <v>0.6568490330823571</v>
+        <v>0.6401345817713986</v>
       </c>
       <c r="U10">
-        <v>0.6568490330823571</v>
+        <v>0.6478110458860095</v>
       </c>
       <c r="V10">
-        <v>0.6568490330823571</v>
+        <v>0.6482857736049628</v>
       </c>
       <c r="W10">
-        <v>0.6938519447830681</v>
+        <v>0.6863684206619755</v>
       </c>
       <c r="X10">
-        <v>0.6938519447830681</v>
+        <v>0.6863684206619755</v>
       </c>
       <c r="Y10">
-        <v>0.7207383445557274</v>
+        <v>0.7166544184785298</v>
       </c>
       <c r="Z10">
-        <v>0.7353492022011899</v>
+        <v>0.7374798337461883</v>
       </c>
       <c r="AA10">
-        <v>0.8642958124158869</v>
+        <v>0.8464221577632274</v>
       </c>
       <c r="AB10">
-        <v>0.8642958124158869</v>
+        <v>0.8464221577632274</v>
       </c>
       <c r="AC10">
-        <v>0.9027189895700358</v>
+        <v>0.8855993828375991</v>
       </c>
       <c r="AD10">
-        <v>0.9027189895700358</v>
+        <v>0.8933491200096089</v>
       </c>
       <c r="AE10">
-        <v>0.9208938663262815</v>
+        <v>0.9169212731935263</v>
       </c>
       <c r="AF10">
-        <v>0.9410438821049886</v>
+        <v>0.9420156374190355</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999998</v>
+        <v>0.9970173025741544</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999998</v>
+        <v>0.9970173025741544</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2836,100 +2836,100 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2123018388286744</v>
+        <v>0.181224900701685</v>
       </c>
       <c r="E11">
-        <v>0.2123018388286744</v>
+        <v>0.181224900701685</v>
       </c>
       <c r="F11">
-        <v>0.4675679005571585</v>
+        <v>0.397293531977549</v>
       </c>
       <c r="G11">
-        <v>0.4967254924414531</v>
+        <v>0.4299895319791787</v>
       </c>
       <c r="H11">
-        <v>0.4967254924414531</v>
+        <v>0.4348448158124331</v>
       </c>
       <c r="I11">
-        <v>0.4967254924414531</v>
+        <v>0.4348448158124331</v>
       </c>
       <c r="J11">
-        <v>0.4967254924414531</v>
+        <v>0.4348448158124331</v>
       </c>
       <c r="K11">
-        <v>0.4967254924414531</v>
+        <v>0.4348448158124331</v>
       </c>
       <c r="L11">
-        <v>0.5179537019546622</v>
+        <v>0.4611101336252555</v>
       </c>
       <c r="M11">
-        <v>0.5179537019546622</v>
+        <v>0.4611101336252555</v>
       </c>
       <c r="N11">
-        <v>0.5782812157433203</v>
+        <v>0.5190847558746683</v>
       </c>
       <c r="O11">
-        <v>0.6334906734084222</v>
+        <v>0.5729086648888253</v>
       </c>
       <c r="P11">
-        <v>0.6334906734084222</v>
+        <v>0.5747434211632252</v>
       </c>
       <c r="Q11">
-        <v>0.6466235111444745</v>
+        <v>0.5944434403609918</v>
       </c>
       <c r="R11">
-        <v>0.6466235111444745</v>
+        <v>0.5944434403609918</v>
       </c>
       <c r="S11">
-        <v>0.7193092522396848</v>
+        <v>0.6624405118386408</v>
       </c>
       <c r="T11">
-        <v>0.7193092522396848</v>
+        <v>0.6624405118386408</v>
       </c>
       <c r="U11">
-        <v>0.7276101441395882</v>
+        <v>0.6782218515514694</v>
       </c>
       <c r="V11">
-        <v>0.7296823201017187</v>
+        <v>0.6889517394909245</v>
       </c>
       <c r="W11">
-        <v>0.7371065854799056</v>
+        <v>0.7040221402811964</v>
       </c>
       <c r="X11">
-        <v>0.7469263705352337</v>
+        <v>0.721035293356552</v>
       </c>
       <c r="Y11">
-        <v>0.7469263705352337</v>
+        <v>0.7241214027585301</v>
       </c>
       <c r="Z11">
-        <v>0.8238404711009232</v>
+        <v>0.7955476487496743</v>
       </c>
       <c r="AA11">
-        <v>0.8684946064867196</v>
+        <v>0.8408112538458153</v>
       </c>
       <c r="AB11">
-        <v>0.8843770202528725</v>
+        <v>0.8627411629361436</v>
       </c>
       <c r="AC11">
-        <v>0.8962712216458534</v>
+        <v>0.8814366553880639</v>
       </c>
       <c r="AD11">
-        <v>0.9341533171216533</v>
+        <v>0.9212081761839312</v>
       </c>
       <c r="AE11">
-        <v>0.9341533171216533</v>
+        <v>0.9220872945352784</v>
       </c>
       <c r="AF11">
-        <v>0.9978796866998922</v>
+        <v>0.9828183687207313</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9935872957564816</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6031320044319766</v>
+        <v>0.5861391670960994</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5418734567260513</v>
+        <v>0.5152499912855135</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -3079,16 +3079,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6116244924187603</v>
+        <v>0.5322517108188568</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5990392617699958</v>
+        <v>0.5699975675748952</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5544953726043356</v>
+        <v>0.5530188054538949</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5668136404230071</v>
+        <v>0.5505684799167466</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5711279461064983</v>
+        <v>0.5293454665115294</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5514370894193432</v>
+        <v>0.5206052198615795</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5520912212142268</v>
+        <v>0.5115740588784063</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -3366,16 +3366,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5179537019546622</v>
+        <v>0.5190847558746683</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>55</v>
@@ -3461,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.7059115096324395</v>
+      </c>
+      <c r="G2">
         <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7090007368916911</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7283440183278794</v>
+        <v>0.7077516707550627</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3543,16 +3543,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.727272104093272</v>
+        <v>0.7138190775379705</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7580867534121263</v>
+        <v>0.7388351272930553</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7230733419270958</v>
+        <v>0.7215119994559995</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7248043928903024</v>
+        <v>0.7075891413803611</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -3707,16 +3707,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.7080798111204069</v>
+      </c>
+      <c r="G8">
         <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7177874243314102</v>
-      </c>
-      <c r="G8">
-        <v>21</v>
       </c>
       <c r="H8">
         <v>55</v>
@@ -3748,16 +3748,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7051260707870634</v>
+        <v>0.700547253437502</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>55</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7207383445557274</v>
+        <v>0.7166544184785298</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -3830,16 +3830,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7193092522396848</v>
+        <v>0.7040221402811964</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>55</v>
@@ -3925,16 +3925,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.815181059516466</v>
+      </c>
+      <c r="G2">
         <v>26</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8038462065414402</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
       </c>
       <c r="H2">
         <v>55</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8382360889924451</v>
+        <v>0.8223796196887696</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -4007,16 +4007,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8161868505644967</v>
+        <v>0.8157770147095313</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>55</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8503783854275219</v>
+        <v>0.8448874366609707</v>
       </c>
       <c r="G5">
         <v>24</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8177077516341316</v>
+        <v>0.817483704078901</v>
       </c>
       <c r="G6">
         <v>26</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8626098694174404</v>
+        <v>0.8526332241054962</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -4171,16 +4171,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8673603600913256</v>
+      </c>
+      <c r="G8">
         <v>25</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8014157217872738</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
       </c>
       <c r="H8">
         <v>55</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8338887701105815</v>
+        <v>0.8159926951664012</v>
       </c>
       <c r="G9">
         <v>24</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8642958124158869</v>
+        <v>0.8464221577632274</v>
       </c>
       <c r="G10">
         <v>25</v>
@@ -4294,16 +4294,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8408112538458153</v>
+      </c>
+      <c r="G11">
         <v>25</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8238404711009232</v>
-      </c>
-      <c r="G11">
-        <v>24</v>
       </c>
       <c r="H11">
         <v>55</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9887837975224865</v>
+        <v>0.9851841286465723</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9142848435757482</v>
+        <v>0.906956804389182</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9863696653329752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9220476627335137</v>
+        <v>0.9194834881441358</v>
       </c>
       <c r="G5">
         <v>28</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9841785504379543</v>
+        <v>0.98388644872364</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9167850159700721</v>
+        <v>0.906378359981494</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9144525869694115</v>
+        <v>0.9127142019157251</v>
       </c>
       <c r="G8">
         <v>28</v>
@@ -4676,16 +4676,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.9283453002332325</v>
+      </c>
+      <c r="G9">
         <v>28</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9014385067117622</v>
-      </c>
-      <c r="G9">
-        <v>27</v>
       </c>
       <c r="H9">
         <v>55</v>
@@ -4717,16 +4717,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9027189895700358</v>
+        <v>0.9169212731935263</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>55</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9341533171216533</v>
+        <v>0.9212081761839312</v>
       </c>
       <c r="G11">
         <v>28</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/55_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/55_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -559,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -671,10 +674,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -778,10 +784,13 @@
       <c r="AI2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -790,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004722743025748623</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1301957513797363</v>
+        <v>0.1307621379239056</v>
       </c>
       <c r="F3">
-        <v>0.09245347076691675</v>
+        <v>0.09285566823687409</v>
       </c>
       <c r="G3">
-        <v>0.1872363539726595</v>
+        <v>0.1880508824833489</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -811,40 +820,40 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01574254191790265</v>
+        <v>0.01581102621035328</v>
       </c>
       <c r="L3">
-        <v>0.01538839855875207</v>
+        <v>0.01545534223231766</v>
       </c>
       <c r="M3">
-        <v>0.06951073166379762</v>
+        <v>0.06981312204652913</v>
       </c>
       <c r="N3">
-        <v>0.00326995474612653</v>
+        <v>0.003284179928965613</v>
       </c>
       <c r="O3">
-        <v>0.1150611024309197</v>
+        <v>0.1155616491805911</v>
       </c>
       <c r="P3">
-        <v>0.007200815653648438</v>
+        <v>0.007232141138927713</v>
       </c>
       <c r="Q3">
-        <v>0.02287857654856931</v>
+        <v>0.02297810451142166</v>
       </c>
       <c r="R3">
-        <v>0.001954342446367278</v>
+        <v>0.001962844361772281</v>
       </c>
       <c r="S3">
-        <v>0.04213688764391801</v>
+        <v>0.0423201944409661</v>
       </c>
       <c r="T3">
-        <v>0.04028678867399194</v>
+        <v>0.04046204704280144</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0004101711871275366</v>
+        <v>0.0004119555421370758</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -856,39 +865,42 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.02046055020170124</v>
+        <v>0.02054955909943972</v>
       </c>
       <c r="AA3">
-        <v>0.05347043887088623</v>
+        <v>0.05370304966475895</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04859259542301902</v>
+        <v>0.04880398628564083</v>
       </c>
       <c r="AD3">
-        <v>0.0153265430332643</v>
+        <v>0.01539321761865344</v>
       </c>
       <c r="AE3">
-        <v>0.02065804624412912</v>
+        <v>0.02074791430278316</v>
       </c>
       <c r="AF3">
-        <v>0.05008162401371052</v>
+        <v>0.05029949255128497</v>
       </c>
       <c r="AG3">
-        <v>0.0348256096791693</v>
+        <v>0.0349771104501679</v>
       </c>
       <c r="AH3">
-        <v>0.008135961917937981</v>
+        <v>0.008171355541042882</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>0.000393019205316371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -992,10 +1004,13 @@
       <c r="AI4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1099,10 +1114,13 @@
       <c r="AI5">
         <v>0.0004094897989593056</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1206,10 +1224,13 @@
       <c r="AI6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1313,10 +1334,13 @@
       <c r="AI7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1420,10 +1444,13 @@
       <c r="AI8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1527,10 +1554,13 @@
       <c r="AI9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1634,10 +1664,13 @@
       <c r="AI10">
         <v>0.00298269742584543</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1739,6 +1772,9 @@
         <v>0.006412704243518187</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>0</v>
       </c>
     </row>
@@ -1749,15 +1785,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1861,10 +1897,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1968,10 +2007,13 @@
       <c r="AI2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1980,105 +2022,108 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004722743025748623</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1349184944054849</v>
+        <v>0.1307621379239056</v>
       </c>
       <c r="F3">
-        <v>0.2273719651724017</v>
+        <v>0.2236178061607796</v>
       </c>
       <c r="G3">
-        <v>0.4146083191450612</v>
+        <v>0.4116686886441286</v>
       </c>
       <c r="H3">
-        <v>0.4146083191450612</v>
+        <v>0.4116686886441286</v>
       </c>
       <c r="I3">
-        <v>0.4146083191450612</v>
+        <v>0.4116686886441286</v>
       </c>
       <c r="J3">
-        <v>0.4146083191450612</v>
+        <v>0.4116686886441286</v>
       </c>
       <c r="K3">
-        <v>0.4303508610629638</v>
+        <v>0.4274797148544819</v>
       </c>
       <c r="L3">
-        <v>0.4457392596217159</v>
+        <v>0.4429350570867995</v>
       </c>
       <c r="M3">
-        <v>0.5152499912855135</v>
+        <v>0.5127481791333287</v>
       </c>
       <c r="N3">
-        <v>0.5185199460316401</v>
+        <v>0.5160323590622943</v>
       </c>
       <c r="O3">
-        <v>0.6335810484625598</v>
+        <v>0.6315940082428854</v>
       </c>
       <c r="P3">
-        <v>0.6407818641162082</v>
+        <v>0.638826149381813</v>
       </c>
       <c r="Q3">
-        <v>0.6636604406647775</v>
+        <v>0.6618042538932347</v>
       </c>
       <c r="R3">
-        <v>0.6656147831111447</v>
+        <v>0.663767098255007</v>
       </c>
       <c r="S3">
-        <v>0.7077516707550627</v>
+        <v>0.7060872926959731</v>
       </c>
       <c r="T3">
-        <v>0.7480384594290547</v>
+        <v>0.7465493397387746</v>
       </c>
       <c r="U3">
-        <v>0.7480384594290547</v>
+        <v>0.7465493397387746</v>
       </c>
       <c r="V3">
-        <v>0.7484486306161822</v>
+        <v>0.7469612952809116</v>
       </c>
       <c r="W3">
-        <v>0.7484486306161822</v>
+        <v>0.7469612952809116</v>
       </c>
       <c r="X3">
-        <v>0.7484486306161822</v>
+        <v>0.7469612952809116</v>
       </c>
       <c r="Y3">
-        <v>0.7484486306161822</v>
+        <v>0.7469612952809116</v>
       </c>
       <c r="Z3">
-        <v>0.7689091808178834</v>
+        <v>0.7675108543803513</v>
       </c>
       <c r="AA3">
-        <v>0.8223796196887696</v>
+        <v>0.8212139040451102</v>
       </c>
       <c r="AB3">
-        <v>0.8223796196887696</v>
+        <v>0.8212139040451102</v>
       </c>
       <c r="AC3">
-        <v>0.8709722151117886</v>
+        <v>0.8700178903307511</v>
       </c>
       <c r="AD3">
-        <v>0.8862987581450529</v>
+        <v>0.8854111079494045</v>
       </c>
       <c r="AE3">
-        <v>0.906956804389182</v>
+        <v>0.9061590222521876</v>
       </c>
       <c r="AF3">
-        <v>0.9570384284028925</v>
+        <v>0.9564585148034725</v>
       </c>
       <c r="AG3">
-        <v>0.9918640380820618</v>
+        <v>0.9914356252536405</v>
       </c>
       <c r="AH3">
+        <v>0.9996069807946834</v>
+      </c>
+      <c r="AI3">
+        <v>0.9996069807946834</v>
+      </c>
+      <c r="AJ3">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AI3">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2182,10 +2227,13 @@
       <c r="AI4">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2289,10 +2337,13 @@
       <c r="AI5">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2396,10 +2447,13 @@
       <c r="AI6">
         <v>0.9999999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AJ6">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2503,10 +2557,13 @@
       <c r="AI7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2610,10 +2667,13 @@
       <c r="AI8">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2717,10 +2777,13 @@
       <c r="AI9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2824,10 +2887,13 @@
       <c r="AI10">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2929,6 +2995,9 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="AI11">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ11">
         <v>0.9999999999999998</v>
       </c>
     </row>
@@ -2947,48 +3016,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3015,21 +3084,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3044,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5152499912855135</v>
+        <v>0.5127481791333287</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -3056,21 +3125,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -3097,21 +3166,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -3138,21 +3207,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -3179,21 +3248,21 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -3220,21 +3289,21 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -3261,21 +3330,21 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -3302,21 +3371,21 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -3343,21 +3412,21 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -3384,16 +3453,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3411,48 +3480,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3479,21 +3548,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -3508,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7077516707550627</v>
+        <v>0.7060872926959731</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3520,21 +3589,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -3561,21 +3630,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -3602,21 +3671,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -3643,21 +3712,21 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -3684,21 +3753,21 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3725,21 +3794,21 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3766,21 +3835,21 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -3807,21 +3876,21 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -3848,16 +3917,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3875,48 +3944,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -3943,21 +4012,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -3972,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8223796196887696</v>
+        <v>0.8212139040451102</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -3984,21 +4053,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -4025,21 +4094,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4066,21 +4135,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4107,21 +4176,21 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4148,21 +4217,21 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4189,21 +4258,21 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4230,21 +4299,21 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -4271,21 +4340,21 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -4312,16 +4381,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4339,48 +4408,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4407,21 +4476,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -4436,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.906956804389182</v>
+        <v>0.9061590222521876</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -4448,21 +4517,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -4489,21 +4558,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -4530,21 +4599,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -4571,21 +4640,21 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -4612,21 +4681,21 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -4653,21 +4722,21 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -4694,21 +4763,21 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -4735,21 +4804,21 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -4776,16 +4845,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
